--- a/biology/Microbiologie/Trypanosomatida/Trypanosomatida.xlsx
+++ b/biology/Microbiologie/Trypanosomatida/Trypanosomatida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trypanosomatida sont un ordre de protozoaires de la classe des Kinetoplastea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon l'AlgaeBase                                           (16 septembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon l'AlgaeBase                                           (16 septembre 2023) :
 Herpetomonadidae A.G.Alexeieff, 1911
 Trypanosomatidae Doflein, 1901</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Trypanosomatida (Kent, 1880) Hollande, 1952[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Trypanosomatida (Kent, 1880) Hollande, 1952,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) W. Saville-Kent, A manual of the infusoria, including a description of all known flagellate, ciliate, and tentaculiferous protozoa, British and foreign and an account of the organization and affinities of the sponges, vol. I, Londres, David Bogue, 1880-1881 (lire en ligne ).</t>
         </is>
